--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mprgs\!Sync\Statistika\RespPD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mprgs\!Sync\Statistika\python\articles--2025expiratory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6992C2D3-F3D8-4EB3-8B31-A293C0664456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BBBF77-AD17-4B19-B202-4F257B90D629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9570" yWindow="2445" windowWidth="22860" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="615" windowWidth="23115" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fin_RespPN" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fin_RespPN!$A$1:$AL$76</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1060,10 +1063,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:DV76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AP25" sqref="AP25"/>
+    <sheetView tabSelected="1" topLeftCell="R7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7637,10 +7641,18 @@
         <f>S34+T34+U34+V34</f>
         <v>800</v>
       </c>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="31"/>
-      <c r="AA34" s="31"/>
+      <c r="X34" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="31">
+        <v>0</v>
+      </c>
       <c r="AB34" s="31">
         <v>750</v>
       </c>
@@ -7932,7 +7944,7 @@
       <c r="DT35" s="40"/>
       <c r="DU35" s="40"/>
     </row>
-    <row r="36" spans="1:126" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:126" s="21" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
         <v>45</v>
       </c>
@@ -8137,7 +8149,7 @@
       <c r="DT36" s="40"/>
       <c r="DU36" s="40"/>
     </row>
-    <row r="37" spans="1:126" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:126" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="42" t="s">
         <v>46</v>
       </c>
@@ -8752,7 +8764,7 @@
       <c r="DT39"/>
       <c r="DU39"/>
     </row>
-    <row r="40" spans="1:126" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:126" s="16" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>49</v>
       </c>
@@ -8957,7 +8969,7 @@
       <c r="DT40"/>
       <c r="DU40"/>
     </row>
-    <row r="41" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:126" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>50</v>
       </c>
@@ -9075,7 +9087,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:126" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>51</v>
       </c>
@@ -9193,7 +9205,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="43" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:126" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>52</v>
       </c>
@@ -9311,7 +9323,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:126" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>53</v>
       </c>
@@ -9429,7 +9441,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="45" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:126" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>54</v>
       </c>
@@ -9547,7 +9559,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="46" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:126" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>55</v>
       </c>
@@ -9665,7 +9677,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:126" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>56</v>
       </c>
@@ -9783,7 +9795,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:126" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>57</v>
       </c>
@@ -9899,7 +9911,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>58</v>
       </c>
@@ -10017,7 +10029,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>59</v>
       </c>
@@ -10133,7 +10145,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>60</v>
       </c>
@@ -10216,7 +10228,7 @@
       <c r="AK51" s="31"/>
       <c r="AL51" s="31"/>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>61</v>
       </c>
@@ -10334,7 +10346,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>62</v>
       </c>
@@ -10452,7 +10464,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>63</v>
       </c>
@@ -10570,7 +10582,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>64</v>
       </c>
@@ -10655,7 +10667,7 @@
       <c r="AK55" s="31"/>
       <c r="AL55" s="31"/>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>65</v>
       </c>
@@ -10759,7 +10771,7 @@
       <c r="AK56" s="31"/>
       <c r="AL56" s="31"/>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>66</v>
       </c>
@@ -10875,7 +10887,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>67</v>
       </c>
@@ -10993,7 +11005,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>68</v>
       </c>
@@ -11111,7 +11123,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>69</v>
       </c>
@@ -11229,7 +11241,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>70</v>
       </c>
@@ -11333,7 +11345,7 @@
       <c r="AK61" s="31"/>
       <c r="AL61" s="31"/>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>71</v>
       </c>
@@ -11451,7 +11463,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>72</v>
       </c>
@@ -11567,7 +11579,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>73</v>
       </c>
@@ -11671,7 +11683,7 @@
       <c r="AK64" s="31"/>
       <c r="AL64" s="31"/>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>74</v>
       </c>
@@ -11787,7 +11799,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>75</v>
       </c>
@@ -11905,7 +11917,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>76</v>
       </c>
@@ -12021,7 +12033,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>77</v>
       </c>
@@ -12137,7 +12149,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>78</v>
       </c>
@@ -12241,7 +12253,7 @@
       <c r="AK69" s="31"/>
       <c r="AL69" s="31"/>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>79</v>
       </c>
@@ -12359,7 +12371,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>80</v>
       </c>
@@ -12463,7 +12475,7 @@
       <c r="AK71" s="31"/>
       <c r="AL71" s="31"/>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>81</v>
       </c>
@@ -12581,7 +12593,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>82</v>
       </c>
@@ -12699,7 +12711,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>83</v>
       </c>
@@ -12817,7 +12829,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>84</v>
       </c>
@@ -12935,7 +12947,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>85</v>
       </c>
@@ -13054,6 +13066,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AL76" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -13061,21 +13085,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100052A455B93A1EE43936356104911AB54" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d11f2873d76e9d9e3babd16b49eb203d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d9d82554-40e0-4065-8da2-1cd261041cef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7ec126c555e4c64d3651770ced3fbbe7" ns3:_="">
     <xsd:import namespace="d9d82554-40e0-4065-8da2-1cd261041cef"/>
@@ -13245,10 +13254,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B36CE75-EA6F-4EE9-98F4-8A21BBD67D0D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73E1665A-7833-47BC-A487-395398B60796}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d9d82554-40e0-4065-8da2-1cd261041cef"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13270,19 +13304,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73E1665A-7833-47BC-A487-395398B60796}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B36CE75-EA6F-4EE9-98F4-8A21BBD67D0D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d9d82554-40e0-4065-8da2-1cd261041cef"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>